--- a/Business Analysis/Compiled Timeline/Infant/infant_timeline.xlsx
+++ b/Business Analysis/Compiled Timeline/Infant/infant_timeline.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP-GIT\Ulink\Business Analysis\Compiled Timeline\Infant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7170" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infant" sheetId="1" r:id="rId1"/>
+    <sheet name="Woman" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Month</t>
   </si>
@@ -133,13 +134,91 @@
   </si>
   <si>
     <t>Birth (0)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Blood pressure test</t>
+  </si>
+  <si>
+    <t>(osteoporosis screening)</t>
+  </si>
+  <si>
+    <t>Bone mineral density test (osteoporosis screening)</t>
+  </si>
+  <si>
+    <t>Breast cancer screening (mammogram)</t>
+  </si>
+  <si>
+    <t>Cervical cancer screening(Pap test)</t>
+  </si>
+  <si>
+    <t>Chlamydia test</t>
+  </si>
+  <si>
+    <t>Cholesterol test</t>
+  </si>
+  <si>
+    <t>Colorectal cancer screening(using fecal occult blood testing, sigmoidoscopy, or colonoscopy)</t>
+  </si>
+  <si>
+    <t>Diabetes screening</t>
+  </si>
+  <si>
+    <t>Gonorrhea test</t>
+  </si>
+  <si>
+    <t>HIV test</t>
+  </si>
+  <si>
+    <t>Syphilis test</t>
+  </si>
+  <si>
+    <t>once every 3 years</t>
+  </si>
+  <si>
+    <t>Once every 2 years</t>
+  </si>
+  <si>
+    <t>Get tested at least every 2 years if you have normal blood pressure (lower than 120/80).Get tested once a year if you have blood pressure between 120/80 and 139/89.Discuss treatment with your doctor or nurse if you have blood pressure 140/90 or higher.</t>
+  </si>
+  <si>
+    <t>Age 25 and older, get tested for chlamydia if you are at increased risk, pregnant or not pregnant.</t>
+  </si>
+  <si>
+    <t>Starting at age 20, get a cholesterol test regularly if you are at increased risk for heart disease</t>
+  </si>
+  <si>
+    <t>Starting at age 50, get screened for colorectal cancer</t>
+  </si>
+  <si>
+    <t>Get screened for diabetes if your blood pressure is higher than 135/80 or if you take medicine for high blood pressure.</t>
+  </si>
+  <si>
+    <t>Get tested for gonorrhea if you are sexually active and at increased risk, pregnant or not pregnant.</t>
+  </si>
+  <si>
+    <t>Get tested for HIV at least once. (1)</t>
+  </si>
+  <si>
+    <t>Get tested for HIV at least once.(2)</t>
+  </si>
+  <si>
+    <t>Get tested for HIV at least once.(3)</t>
+  </si>
+  <si>
+    <t>Get tested for HIV at least once.(4)</t>
+  </si>
+  <si>
+    <t>Get tested for syphilis if you are atincreased risk or pregnant.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +233,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +314,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -296,11 +454,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -332,12 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -354,11 +587,95 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -880,116 +1197,116 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -999,4 +1316,1329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CF16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.26953125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.7265625" customWidth="1"/>
+    <col min="26" max="48" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6328125" customWidth="1"/>
+    <col min="50" max="83" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="4.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" x14ac:dyDescent="0.35">
+      <c r="A1" s="25"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="3" spans="1:84" s="24" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+    </row>
+    <row r="4" spans="1:84" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="21">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21">
+        <v>20</v>
+      </c>
+      <c r="E4" s="21">
+        <v>21</v>
+      </c>
+      <c r="F4" s="21">
+        <v>22</v>
+      </c>
+      <c r="G4" s="21">
+        <v>23</v>
+      </c>
+      <c r="H4" s="21">
+        <v>24</v>
+      </c>
+      <c r="I4" s="21">
+        <v>25</v>
+      </c>
+      <c r="J4" s="21">
+        <v>26</v>
+      </c>
+      <c r="K4" s="21">
+        <v>27</v>
+      </c>
+      <c r="L4" s="21">
+        <v>28</v>
+      </c>
+      <c r="M4" s="21">
+        <v>29</v>
+      </c>
+      <c r="N4" s="21">
+        <v>30</v>
+      </c>
+      <c r="O4" s="21">
+        <v>31</v>
+      </c>
+      <c r="P4" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>33</v>
+      </c>
+      <c r="R4" s="21">
+        <v>34</v>
+      </c>
+      <c r="S4" s="21">
+        <v>35</v>
+      </c>
+      <c r="T4" s="21">
+        <v>36</v>
+      </c>
+      <c r="U4" s="21">
+        <v>37</v>
+      </c>
+      <c r="V4" s="21">
+        <v>38</v>
+      </c>
+      <c r="W4" s="21">
+        <v>39</v>
+      </c>
+      <c r="X4" s="21">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>48</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="21">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="21">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="21">
+        <v>55</v>
+      </c>
+      <c r="AN4" s="21">
+        <v>56</v>
+      </c>
+      <c r="AO4" s="21">
+        <v>57</v>
+      </c>
+      <c r="AP4" s="21">
+        <v>58</v>
+      </c>
+      <c r="AQ4" s="21">
+        <v>59</v>
+      </c>
+      <c r="AR4" s="21">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>61</v>
+      </c>
+      <c r="AT4" s="21">
+        <v>62</v>
+      </c>
+      <c r="AU4" s="21">
+        <v>63</v>
+      </c>
+      <c r="AV4" s="21">
+        <v>64</v>
+      </c>
+      <c r="AW4" s="21">
+        <v>65</v>
+      </c>
+      <c r="AX4" s="21">
+        <v>66</v>
+      </c>
+      <c r="AY4" s="21">
+        <v>67</v>
+      </c>
+      <c r="AZ4" s="21">
+        <v>68</v>
+      </c>
+      <c r="BA4" s="21">
+        <v>69</v>
+      </c>
+      <c r="BB4" s="21">
+        <v>70</v>
+      </c>
+      <c r="BC4" s="21">
+        <v>71</v>
+      </c>
+      <c r="BD4" s="21">
+        <v>72</v>
+      </c>
+      <c r="BE4" s="21">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="21">
+        <v>74</v>
+      </c>
+      <c r="BG4" s="21">
+        <v>75</v>
+      </c>
+      <c r="BH4" s="21">
+        <v>76</v>
+      </c>
+      <c r="BI4" s="21">
+        <v>77</v>
+      </c>
+      <c r="BJ4" s="21">
+        <v>78</v>
+      </c>
+      <c r="BK4" s="21">
+        <v>79</v>
+      </c>
+      <c r="BL4" s="21">
+        <v>80</v>
+      </c>
+      <c r="BM4" s="21">
+        <v>81</v>
+      </c>
+      <c r="BN4" s="21">
+        <v>82</v>
+      </c>
+      <c r="BO4" s="21">
+        <v>83</v>
+      </c>
+      <c r="BP4" s="21">
+        <v>84</v>
+      </c>
+      <c r="BQ4" s="21">
+        <v>85</v>
+      </c>
+      <c r="BR4" s="21">
+        <v>86</v>
+      </c>
+      <c r="BS4" s="21">
+        <v>87</v>
+      </c>
+      <c r="BT4" s="21">
+        <v>88</v>
+      </c>
+      <c r="BU4" s="21">
+        <v>89</v>
+      </c>
+      <c r="BV4" s="21">
+        <v>90</v>
+      </c>
+      <c r="BW4" s="21">
+        <v>91</v>
+      </c>
+      <c r="BX4" s="21">
+        <v>92</v>
+      </c>
+      <c r="BY4" s="21">
+        <v>93</v>
+      </c>
+      <c r="BZ4" s="21">
+        <v>94</v>
+      </c>
+      <c r="CA4" s="21">
+        <v>95</v>
+      </c>
+      <c r="CB4" s="21">
+        <v>96</v>
+      </c>
+      <c r="CC4" s="21">
+        <v>97</v>
+      </c>
+      <c r="CD4" s="21">
+        <v>98</v>
+      </c>
+      <c r="CE4" s="21">
+        <v>99</v>
+      </c>
+      <c r="CF4" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" s="35" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+    </row>
+    <row r="6" spans="1:84" s="35" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="30"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
+      <c r="BY6" s="30"/>
+      <c r="BZ6" s="30"/>
+      <c r="CA6" s="30"/>
+      <c r="CB6" s="30"/>
+      <c r="CC6" s="30"/>
+      <c r="CD6" s="30"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="33"/>
+    </row>
+    <row r="7" spans="1:84" s="35" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="32"/>
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="32"/>
+      <c r="BY7" s="32"/>
+      <c r="BZ7" s="32"/>
+      <c r="CA7" s="32"/>
+      <c r="CB7" s="32"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="32"/>
+      <c r="CE7" s="32"/>
+      <c r="CF7" s="34"/>
+    </row>
+    <row r="8" spans="1:84" s="35" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="38"/>
+      <c r="BN8" s="38"/>
+      <c r="BO8" s="38"/>
+      <c r="BP8" s="38"/>
+      <c r="BQ8" s="38"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="38"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="38"/>
+      <c r="BW8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="38"/>
+      <c r="CC8" s="38"/>
+      <c r="CD8" s="38"/>
+      <c r="CE8" s="38"/>
+      <c r="CF8" s="40"/>
+    </row>
+    <row r="9" spans="1:84" s="35" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="49"/>
+      <c r="BN9" s="49"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="49"/>
+      <c r="BQ9" s="49"/>
+      <c r="BR9" s="49"/>
+      <c r="BS9" s="49"/>
+      <c r="BT9" s="49"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="49"/>
+      <c r="BY9" s="49"/>
+      <c r="BZ9" s="49"/>
+      <c r="CA9" s="49"/>
+      <c r="CB9" s="49"/>
+      <c r="CC9" s="49"/>
+      <c r="CD9" s="49"/>
+      <c r="CE9" s="49"/>
+      <c r="CF9" s="50"/>
+    </row>
+    <row r="10" spans="1:84" s="35" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="47"/>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="47"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="47"/>
+      <c r="BJ10" s="47"/>
+      <c r="BK10" s="47"/>
+      <c r="BL10" s="47"/>
+      <c r="BM10" s="47"/>
+      <c r="BN10" s="47"/>
+      <c r="BO10" s="47"/>
+      <c r="BP10" s="47"/>
+      <c r="BQ10" s="47"/>
+      <c r="BR10" s="47"/>
+      <c r="BS10" s="47"/>
+      <c r="BT10" s="47"/>
+      <c r="BU10" s="47"/>
+      <c r="BV10" s="47"/>
+      <c r="BW10" s="47"/>
+      <c r="BX10" s="47"/>
+      <c r="BY10" s="47"/>
+      <c r="BZ10" s="47"/>
+      <c r="CA10" s="47"/>
+      <c r="CB10" s="47"/>
+      <c r="CC10" s="47"/>
+      <c r="CD10" s="47"/>
+      <c r="CE10" s="47"/>
+      <c r="CF10" s="47"/>
+    </row>
+    <row r="11" spans="1:84" s="35" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="51"/>
+      <c r="BA11" s="51"/>
+      <c r="BB11" s="51"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
+      <c r="BN11" s="51"/>
+      <c r="BO11" s="51"/>
+      <c r="BP11" s="51"/>
+      <c r="BQ11" s="51"/>
+      <c r="BR11" s="51"/>
+      <c r="BS11" s="51"/>
+      <c r="BT11" s="51"/>
+      <c r="BU11" s="51"/>
+      <c r="BV11" s="51"/>
+      <c r="BW11" s="51"/>
+      <c r="BX11" s="51"/>
+      <c r="BY11" s="51"/>
+      <c r="BZ11" s="51"/>
+      <c r="CA11" s="51"/>
+      <c r="CB11" s="51"/>
+      <c r="CC11" s="51"/>
+      <c r="CD11" s="51"/>
+      <c r="CE11" s="51"/>
+      <c r="CF11" s="52"/>
+    </row>
+    <row r="12" spans="1:84" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="41"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="41"/>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="41"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="41"/>
+      <c r="BR12" s="41"/>
+      <c r="BS12" s="41"/>
+      <c r="BT12" s="41"/>
+      <c r="BU12" s="41"/>
+      <c r="BV12" s="41"/>
+      <c r="BW12" s="41"/>
+      <c r="BX12" s="41"/>
+      <c r="BY12" s="41"/>
+      <c r="BZ12" s="41"/>
+      <c r="CA12" s="41"/>
+      <c r="CB12" s="41"/>
+      <c r="CC12" s="41"/>
+      <c r="CD12" s="41"/>
+      <c r="CE12" s="41"/>
+      <c r="CF12" s="41"/>
+    </row>
+    <row r="13" spans="1:84" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41"/>
+      <c r="BL13" s="41"/>
+      <c r="BM13" s="41"/>
+      <c r="BN13" s="41"/>
+      <c r="BO13" s="41"/>
+      <c r="BP13" s="41"/>
+      <c r="BQ13" s="41"/>
+      <c r="BR13" s="41"/>
+      <c r="BS13" s="41"/>
+      <c r="BT13" s="41"/>
+      <c r="BU13" s="41"/>
+      <c r="BV13" s="41"/>
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CA13" s="41"/>
+      <c r="CB13" s="41"/>
+      <c r="CC13" s="41"/>
+      <c r="CD13" s="41"/>
+      <c r="CE13" s="41"/>
+      <c r="CF13" s="41"/>
+    </row>
+    <row r="14" spans="1:84" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
+      <c r="BC14" s="55"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="55"/>
+      <c r="BF14" s="55"/>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="55"/>
+      <c r="BI14" s="55"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="55"/>
+      <c r="BL14" s="55"/>
+      <c r="BM14" s="55"/>
+      <c r="BN14" s="55"/>
+      <c r="BO14" s="55"/>
+      <c r="BP14" s="55"/>
+      <c r="BQ14" s="55"/>
+      <c r="BR14" s="55"/>
+      <c r="BS14" s="55"/>
+      <c r="BT14" s="55"/>
+      <c r="BU14" s="55"/>
+      <c r="BV14" s="55"/>
+      <c r="BW14" s="55"/>
+      <c r="BX14" s="55"/>
+      <c r="BY14" s="55"/>
+      <c r="BZ14" s="55"/>
+      <c r="CA14" s="55"/>
+      <c r="CB14" s="55"/>
+      <c r="CC14" s="55"/>
+      <c r="CD14" s="55"/>
+      <c r="CE14" s="55"/>
+      <c r="CF14" s="55"/>
+    </row>
+    <row r="15" spans="1:84" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="39"/>
+      <c r="BL15" s="39"/>
+      <c r="BM15" s="39"/>
+      <c r="BN15" s="39"/>
+      <c r="BO15" s="39"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="39"/>
+      <c r="BS15" s="39"/>
+      <c r="BT15" s="39"/>
+      <c r="BU15" s="39"/>
+      <c r="BV15" s="39"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="BY15" s="39"/>
+      <c r="BZ15" s="39"/>
+      <c r="CA15" s="39"/>
+      <c r="CB15" s="39"/>
+      <c r="CC15" s="39"/>
+      <c r="CD15" s="39"/>
+      <c r="CE15" s="39"/>
+      <c r="CF15" s="39"/>
+    </row>
+    <row r="16" spans="1:84" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B15:W15"/>
+    <mergeCell ref="B12:CF12"/>
+    <mergeCell ref="B13:CF13"/>
+    <mergeCell ref="X14:AH14"/>
+    <mergeCell ref="AI14:AV14"/>
+    <mergeCell ref="AW14:CF14"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="I9:CF9"/>
+    <mergeCell ref="AH11:CF11"/>
+    <mergeCell ref="D10:CF10"/>
+    <mergeCell ref="I8:BA8"/>
+    <mergeCell ref="B5:CF5"/>
+    <mergeCell ref="AH7:BA7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" location="c" display="https://www.womenshealth.gov/publications/our-publications/fact-sheet/gonorrhea.html - c"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>